--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2383351.933346643</v>
+        <v>2531355.987134451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954775</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083135</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4758658.689563156</v>
+        <v>5201090.558293623</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>107.3008974898682</v>
       </c>
       <c r="E2" t="n">
-        <v>98.44663836802211</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -713,16 +715,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>84.92639229823865</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.0109880549457</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>123.7367146231251</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>277.6821005944574</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -956,10 +958,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1057,10 +1059,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>32.98066327132578</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>272.0650123527844</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,16 +1135,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>29.74512849779529</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>328.806018608051</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,10 +1353,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>125.1716544454846</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3206940751911</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>3.139541480023094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1610,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>211.8685347881964</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1771,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>43.70143389869472</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.383853062969</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2002,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3894349117778</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>83.49545568307902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>13.51446909089648</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>31.28831241118208</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.2853439284767</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253695</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800591</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>60.78001549303652</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>153.2006427344284</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800598</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.412621479131198</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>304.7416979278936</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>56.67612639678307</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112161</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>167.3665460298584</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633442</v>
       </c>
     </row>
     <row r="45">
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>108.5103196251633</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>214.8227558384079</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1340.268492507381</v>
+        <v>1434.694206920162</v>
       </c>
       <c r="C2" t="n">
-        <v>902.126019690804</v>
+        <v>1400.592138143989</v>
       </c>
       <c r="D2" t="n">
-        <v>466.2162348652485</v>
+        <v>1292.207393204728</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621483</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>2190.771296621483</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>1785.915842032516</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.773378611827</v>
+        <v>1461.199093024608</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.527658951884</v>
+        <v>1456.953373364666</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612185</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933183</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1430.740005439101</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1430.740005439101</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1430.740005439101</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1158.713601025392</v>
       </c>
       <c r="X4" t="n">
-        <v>1406.107276723079</v>
+        <v>913.3218463588046</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>685.9021756729128</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.602188492498</v>
+        <v>416.7668933966092</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.459715675921</v>
+        <v>136.2799230991775</v>
       </c>
       <c r="D5" t="n">
-        <v>800.5499308503654</v>
+        <v>104.4105423140261</v>
       </c>
       <c r="E5" t="n">
-        <v>366.7751860086605</v>
+        <v>74.67620151272533</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="V5" t="n">
-        <v>2223.792002549091</v>
+        <v>2075.35050559152</v>
       </c>
       <c r="W5" t="n">
-        <v>2222.976952000528</v>
+        <v>1670.495051002553</v>
       </c>
       <c r="X5" t="n">
-        <v>2207.874892620243</v>
+        <v>1251.352587581864</v>
       </c>
       <c r="Y5" t="n">
-        <v>1799.588768919897</v>
+        <v>843.0664638815171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>568.9155211348376</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>568.9155211348376</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>392.2084670965938</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>226.6171921224215</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>86.71501781279602</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.472033935714</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2640.01524209022</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2640.01524209022</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2640.01524209022</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2639.200191541658</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2220.057728120968</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.771604420622</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="9">
@@ -4896,7 +4898,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1678.133681136788</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1353.67835891483</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677761</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5387406219828</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219828</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374606</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127228</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085823</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.31998283888</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.31998283888</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.31998283888</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.31998283888</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2401.464528249913</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1982.322064829224</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1779.977929399738</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>750.6905954094003</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1445.254791162023</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645095</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0047077152468</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>59.29765367700296</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>59.29765367700296</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>59.29765367700296</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1757.725667655448</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1319.583194838871</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1319.583194838871</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>885.808449997166</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>457.9410204063737</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.5431890296376</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>56.5431890296376</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677761</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5387406219828</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374606</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2090.667132127228</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127228</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085823</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.31998283888</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.31998283888</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.31998283888</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.31998283888</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.31998283888</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2592.311361840702</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2184.025238140355</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>56.12639965677761</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O15" t="n">
-        <v>750.6905954094003</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>744.2024157797618</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>571.6407042629868</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>405.7627114645095</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>361.6198489405754</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>361.6198489405754</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G16" t="n">
-        <v>196.0285739664031</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.440705184641</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.021034498749</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,31 +5518,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L17" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5552,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5606,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>210.9600532992111</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5683,40 +5685,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,49 +5755,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>605.8694973157604</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1680.92946356862</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.977298779171</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>3963.708282215618</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>4943.887948785924</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
         <v>1765.500601749588</v>
@@ -5917,22 +5919,22 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
         <v>2700.681281130895</v>
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6077,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1176.997895781659</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1004.436184264884</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>838.5581914664062</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>668.8001877171434</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>492.0931336788997</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>326.5018587047273</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>186.5996843951019</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1368.816514500646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,13 +6235,13 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698831</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6303,16 +6305,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>130.2240328681073</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>810.9575529384846</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>3168.718933692368</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>4148.898600262674</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4977.20847509607</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6548,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2506.656904206056</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2228.223903459162</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1941.268395329592</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1669.241990915884</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6938,46 +6940,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136696</v>
@@ -7014,28 +7016,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>927.0677766831641</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>754.506065166389</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>588.6280723679117</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7102,43 +7104,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S37" t="n">
-        <v>2674.992180466348</v>
+        <v>2559.679081471572</v>
       </c>
       <c r="T37" t="n">
-        <v>2429.112734044803</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U37" t="n">
-        <v>2150.679733297909</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V37" t="n">
-        <v>1863.724225168339</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1591.697820754631</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1346.306066088043</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1118.886395402151</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,19 +7183,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2443.348304557487</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993934</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7257,10 +7259,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N39" t="n">
         <v>751.6989919312866</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7360,22 +7362,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1182.564170415853</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.564170415853</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>746.6543855902975</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>746.6543855902975</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>746.6543855902975</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677762</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>56.12639965677762</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5387406219835</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5387406219835</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.668109022718</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.668109022718</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2414.848212125856</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2009.992757536889</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>1590.8502941162</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1182.564170415853</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>366.8902486565481</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>366.8902486565481</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8902486565481</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
-        <v>366.8902486565481</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>765.6202370743899</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>708.3716245523868</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>542.4936317539095</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>372.7356280046469</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>196.0285739664031</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>196.0285739664031</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.276685559565</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.250281145856</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.858526479269</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>957.4388557933771</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1791.820831731407</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677762</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677762</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677762</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677762</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>176.1286096224173</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N44" t="n">
-        <v>870.6928053750403</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O44" t="n">
-        <v>1565.257001127663</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880286</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2637.262865637004</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2637.262865637004</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2218.120402216315</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2218.120402216315</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>366.8902486565481</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1656.801388721157</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>958.4775062304152</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C46" t="n">
-        <v>785.9157947136401</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D46" t="n">
-        <v>620.0378019151628</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E46" t="n">
-        <v>450.2797981659001</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>211.8672237305405</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.368188264949</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.488741843405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.05574109651</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.10023296694</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1623.107550301882</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X46" t="n">
-        <v>1377.715795635294</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y46" t="n">
-        <v>1150.296124949402</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078568</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847603</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>512.4570950335038</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8304,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>385.0780411188022</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8386,7 +8388,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>276.9662446538998</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P9" t="n">
         <v>347.9676668794094</v>
-      </c>
-      <c r="P9" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8693,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
-        <v>651.9316575406114</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.57999570972</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.57999570972</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
-        <v>276.8801716904679</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,19 +8932,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
-        <v>651.9316575406114</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.57999570972</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O15" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>313.9028777775462</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="O18" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9647,19 +9649,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9881,16 +9883,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>168.8387779969839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9951,19 +9953,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.24564908820976</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,16 +10123,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.205594386779</v>
+        <v>-5.871232860595138e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>288.7351832965069</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>436.0375818946163</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>1024.042030119497</v>
@@ -11060,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>651.9316575406119</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097203</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11142,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>313.9028777775459</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097203</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>121.2143535006462</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097203</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097203</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>313.9028777775459</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.882568388152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>84.63380825304831</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>203.082503998286</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>124.3589898130754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.446659489829557</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>4.277894049992398</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>229.4233680290252</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>81.78272691405618</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>90.2200092229009</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>54.24908263761813</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.1599680048242</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>191.6242345356533</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>29.99283294136596</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>54.48338453116347</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26319,25 @@
         <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
-        <v>313842.8157193866</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>313842.8157193866</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="G2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="I2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="K2" t="n">
         <v>474171.825723617</v>
@@ -26347,13 +26349,13 @@
         <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
+        <v>474171.825723617</v>
+      </c>
+      <c r="O2" t="n">
+        <v>474171.825723617</v>
+      </c>
+      <c r="P2" t="n">
         <v>474171.8257236171</v>
-      </c>
-      <c r="O2" t="n">
-        <v>313842.8157193867</v>
-      </c>
-      <c r="P2" t="n">
-        <v>313842.8157193867</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499826</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045607</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622178</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340684</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113504.4062182506</v>
+        <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>113504.4062182506</v>
+        <v>121997.5637970938</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>533.6918268873698</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>533.6918268873698</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825506</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825804</v>
       </c>
       <c r="O4" t="n">
-        <v>533.6918268873699</v>
+        <v>806.3323907825509</v>
       </c>
       <c r="P4" t="n">
-        <v>533.6918268873699</v>
+        <v>806.3323907825509</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71115.95853731439</v>
+        <v>111748.4058346756</v>
       </c>
       <c r="C6" t="n">
-        <v>294815.6571213594</v>
+        <v>221991.0424012549</v>
       </c>
       <c r="D6" t="n">
-        <v>294815.6571213593</v>
+        <v>283288.0615713767</v>
       </c>
       <c r="E6" t="n">
-        <v>260482.0635528922</v>
+        <v>213292.1455059922</v>
       </c>
       <c r="F6" t="n">
-        <v>270653.0601533482</v>
+        <v>395647.2547270418</v>
       </c>
       <c r="G6" t="n">
-        <v>237587.7777809326</v>
+        <v>395647.2547270419</v>
       </c>
       <c r="H6" t="n">
-        <v>395647.2547270418</v>
+        <v>395647.254727042</v>
       </c>
       <c r="I6" t="n">
         <v>395647.2547270419</v>
       </c>
       <c r="J6" t="n">
-        <v>220995.9060093358</v>
+        <v>284632.7893820518</v>
       </c>
       <c r="K6" t="n">
+        <v>342601.4000882693</v>
+      </c>
+      <c r="L6" t="n">
+        <v>386254.9530004198</v>
+      </c>
+      <c r="M6" t="n">
+        <v>243447.0837890544</v>
+      </c>
+      <c r="N6" t="n">
         <v>395647.2547270419</v>
       </c>
-      <c r="L6" t="n">
-        <v>395647.2547270419</v>
-      </c>
-      <c r="M6" t="n">
-        <v>387158.1730237012</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>395647.254727042</v>
       </c>
-      <c r="O6" t="n">
-        <v>270653.0601533484</v>
-      </c>
       <c r="P6" t="n">
-        <v>270653.0601533483</v>
+        <v>395647.254727042</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.57999570972</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.57999570972</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186306</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186306</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186306</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>324.2497894874317</v>
       </c>
       <c r="E2" t="n">
-        <v>330.9903590252657</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>158.4942596590906</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.1344859240871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.2998601569336</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>156.0789474939535</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54.79268646174563</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>12.0209406954894</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>188.1214263578965</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>86.14502017843142</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>117.7661826744371</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28755,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.144969615027459e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28989,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -30174,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-4.820566934132988e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30763,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
     </row>
     <row r="45">
@@ -32728,7 +32730,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-5.871232860595138e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -34705,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078568</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847603</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>512.4570950335038</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>385.0780411188022</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>276.9662446538998</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="P9" t="n">
         <v>347.9676668794094</v>
-      </c>
-      <c r="P9" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
-        <v>651.9316575406114</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.57999570972</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.57999570972</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
-        <v>276.8801716904679</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
-        <v>651.9316575406114</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.57999570972</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O15" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>313.9028777775462</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>109.7971848772035</v>
       </c>
       <c r="O18" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36051,10 +36053,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956035</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,19 +36369,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>973.8822356326336</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-2.647518703460994e-13</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36601,16 +36603,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>168.8387779969839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.24564908820976</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,19 +36843,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.205594386779</v>
+        <v>-2.647518703460994e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>-4.90130830426555e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>288.7351832965069</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37472,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.125118364555</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37549,22 +37551,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>436.0375818946163</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>1024.042030119497</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>651.9316575406119</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097203</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>313.9028777775459</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097203</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>121.2143535006462</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097203</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097203</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>313.9028777775459</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2531355.987134451</v>
+        <v>2530830.804765418</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>107.3008974898682</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>60.5878122918061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>84.92639229823865</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>173.5591556145158</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>277.6821005944574</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>169.8370394733307</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.4594889613488</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>272.0650123527844</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>168.5716186828009</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>328.806018608051</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>114.8528499950181</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>122.9742767430572</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>108.5103196251634</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.3431845617044</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226066</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735226156</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3480,19 +3480,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>193.8659438253695</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>107.3792913045956</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800591</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598885</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>60.78001549303652</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800598</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.412621479131198</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>129.7139627068452</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112161</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633442</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>108.5103196251633</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1434.694206920162</v>
+        <v>503.8064494671689</v>
       </c>
       <c r="C2" t="n">
-        <v>1400.592138143989</v>
+        <v>469.7043806909962</v>
       </c>
       <c r="D2" t="n">
-        <v>1292.207393204728</v>
+        <v>437.8349999058448</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>408.100659104544</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>384.2736335541558</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4339,43 +4339,43 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="X2" t="n">
-        <v>1461.199093024608</v>
+        <v>530.3113355716151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1456.953373364666</v>
+        <v>526.0656159116726</v>
       </c>
     </row>
     <row r="3">
@@ -4388,37 +4388,37 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4488,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>269.215608100497</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1430.740005439101</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1430.740005439101</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1430.740005439101</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1158.713601025392</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>913.3218463588046</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>416.7668933966092</v>
+        <v>341.5177676270666</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2799230991775</v>
+        <v>307.415698850894</v>
       </c>
       <c r="D5" t="n">
-        <v>104.4105423140261</v>
+        <v>275.5463180657426</v>
       </c>
       <c r="E5" t="n">
-        <v>74.67620151272533</v>
+        <v>245.8119772644418</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233712</v>
+        <v>221.9849517140536</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233712</v>
+        <v>221.9849517140536</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947713</v>
+        <v>557.7649106726449</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947713</v>
+        <v>557.7649106726449</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726459</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657693</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657693</v>
+        <v>2217.90022853073</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.967455657693</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.35050559152</v>
+        <v>1596.060975781573</v>
       </c>
       <c r="W5" t="n">
-        <v>1670.495051002553</v>
+        <v>1191.205521192606</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.352587581864</v>
+        <v>1176.103461812321</v>
       </c>
       <c r="Y5" t="n">
-        <v>843.0664638815171</v>
+        <v>767.8173381119744</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326466</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947713</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947713</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947713</v>
+        <v>700.5968437947135</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947713</v>
+        <v>700.5968437947135</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947713</v>
+        <v>700.5968437947135</v>
       </c>
       <c r="N6" t="n">
-        <v>674.5331706342566</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>674.5331706342566</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>900.9284236664083</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>728.3667121496333</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>562.488719351156</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>392.7307156018932</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>216.0236615636494</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2005.91966063918</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T7" t="n">
-        <v>2340.960139477225</v>
+        <v>2402.973381028047</v>
       </c>
       <c r="U7" t="n">
-        <v>2340.960139477225</v>
+        <v>2124.540380281152</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1837.584872151583</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1565.558467737875</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606238</v>
+        <v>1320.166713071287</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>1092.747042385395</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>576.9744364820456</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C8" t="n">
-        <v>138.8319636654689</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4816,7 +4816,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1007.519726626896</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1003.274006966953</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>511.7125253339923</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>335.0054712957485</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>169.4141963215762</v>
       </c>
       <c r="H10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2545.844385276825</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,28 +5047,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
         <v>4809.322912595856</v>
@@ -5080,13 +5080,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
         <v>1107.588885023173</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5269,7 +5269,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5284,46 +5284,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
         <v>102.2608402707796</v>
@@ -5442,46 +5442,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,31 +5518,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>210.9600532992111</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5685,19 +5685,19 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
         <v>2700.681281130895</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5755,49 +5755,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>566.7757676570886</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5919,43 +5919,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5992,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7086,7 +7086,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7104,40 +7104,40 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955475</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.55153211312</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338901</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471572</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050028</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y37" t="n">
         <v>1373.137619601648</v>
@@ -7153,7 +7153,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7399,64 +7399,64 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7596,16 +7596,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
         <v>1617.386921419177</v>
@@ -7639,7 +7639,7 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7651,46 +7651,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7724,31 +7724,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1062.363260807472</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>889.8015492906967</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>723.9235564922194</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>554.1655527429566</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>377.4584987047128</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>211.8672237305405</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1726.993304878938</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1481.601550212351</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1254.181879526459</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7987,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8221,19 +8221,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335038</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684641</v>
+        <v>358.751098532482</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.0780411188022</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,13 +8382,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>404.6372579062429</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>276.9662446538998</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O8" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9418,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>973.8822356326336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9889,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>-5.871232860595138e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10600,16 +10600,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10837,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11311,16 +11311,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627226</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627218</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>81.78272691405618</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>52.01701577190869</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>29.99283294136596</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="9">
@@ -26322,22 +26322,22 @@
         <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="F2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="G2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.8257236172</v>
+        <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="K2" t="n">
         <v>474171.825723617</v>
@@ -26355,7 +26355,7 @@
         <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501635</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.5955499826</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877266</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622178</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,7 +26420,7 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>121997.5637970938</v>
+        <v>121997.5637970939</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
@@ -26429,37 +26429,37 @@
         <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907825506</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907825804</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907825509</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>806.3323907825509</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>111748.4058346756</v>
       </c>
       <c r="C6" t="n">
-        <v>221991.0424012549</v>
+        <v>221991.0424012551</v>
       </c>
       <c r="D6" t="n">
-        <v>283288.0615713767</v>
+        <v>283288.0615713766</v>
       </c>
       <c r="E6" t="n">
-        <v>213292.1455059922</v>
+        <v>213268.9211666095</v>
       </c>
       <c r="F6" t="n">
-        <v>395647.2547270418</v>
+        <v>395624.0303876594</v>
       </c>
       <c r="G6" t="n">
-        <v>395647.2547270419</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="H6" t="n">
-        <v>395647.254727042</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="I6" t="n">
-        <v>395647.2547270419</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="J6" t="n">
-        <v>284632.7893820518</v>
+        <v>284609.5650426691</v>
       </c>
       <c r="K6" t="n">
-        <v>342601.4000882693</v>
+        <v>342578.1757488868</v>
       </c>
       <c r="L6" t="n">
-        <v>386254.9530004198</v>
+        <v>386231.7286610369</v>
       </c>
       <c r="M6" t="n">
-        <v>243447.0837890544</v>
+        <v>243423.8594496716</v>
       </c>
       <c r="N6" t="n">
-        <v>395647.2547270419</v>
+        <v>395624.0303876592</v>
       </c>
       <c r="O6" t="n">
-        <v>395647.254727042</v>
+        <v>395624.0303876592</v>
       </c>
       <c r="P6" t="n">
-        <v>395647.254727042</v>
+        <v>395624.0303876591</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939285</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939285</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939285</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>324.2497894874317</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>336.7960407711627</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27545,16 +27545,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>158.4942596590906</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>51.58631836451698</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>156.0789474939535</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>116.4018135378851</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>125.9611629959805</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>12.0209406954894</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>253.4649560972578</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>86.14502017843142</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>23.65030257151109</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.922225424602705e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.144969615027459e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-4.820566934132988e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -32730,7 +32730,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-5.871232860595138e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335029</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335038</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684641</v>
+        <v>358.751098532482</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.0780411188022</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>404.6372579062429</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>276.9662446538998</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O8" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080455</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35886,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7971848772035</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36053,10 +36053,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956035</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36138,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645625</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36360,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>973.8822356326336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>-2.647518703460994e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>-2.647518703460994e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37308,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37472,7 +37472,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.125118364555</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37545,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38019,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
